--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/178b79c87036536f/UiPath/PattayaNewsBot/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37BF4F2-BC02-47D1-B057-3EBEF6E3925E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2724CE-6764-47DE-A18B-B2250D0A558D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>ExScreenshotsFolderPath</t>
   </si>
   <si>
-    <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
     <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>PattayaNewsBot</t>
+  </si>
+  <si>
+    <t>c:\temp\</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -585,34 +585,34 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1673,18 +1673,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1693,112 +1693,112 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
